--- a/03_CursoIntermedio_Programacion_OrientadaObjetosConcurrencia/certificado/Examen_Compilado.xlsx
+++ b/03_CursoIntermedio_Programacion_OrientadaObjetosConcurrencia/certificado/Examen_Compilado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuenc\Desktop\Cursos\04_BackendGO\EscuelaBackendGo\02_CursoPracticoGoCreacionServidorWeb\certificado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cuenc\Desktop\Cursos\04_BackendGO\EscuelaBackendGo\03_CursoIntermedio_Programacion_OrientadaObjetosConcurrencia\certificado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5649D907-BCE6-4D59-AAD0-B80E078DC5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF035E2-2E7E-4D66-B05E-1992C6D022D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="172">
   <si>
     <t>Opción Correcta</t>
   </si>
@@ -387,6 +387,168 @@
   </si>
   <si>
     <t>net/http</t>
+  </si>
+  <si>
+    <t>Curso de Go Intermedio: Programación Orientada a Objetos y Concurrencia</t>
+  </si>
+  <si>
+    <t>¿Cómo se pueden instalar diferentes paquetes en Go?</t>
+  </si>
+  <si>
+    <t>go get direccion_del_paquete</t>
+  </si>
+  <si>
+    <t>¿Con qué concepto se puede comparar a un Buffered Channel?</t>
+  </si>
+  <si>
+    <t>Una especie de cola que tiene diferentes espacios.</t>
+  </si>
+  <si>
+    <t>¿Qué problema podría traer utilizar un Channel bidireccional que debería ser utilizado como solo lectura para enviar un mensaje?</t>
+  </si>
+  <si>
+    <t>Podríamos ocasionar un bloqueo en nuestro programa</t>
+  </si>
+  <si>
+    <t>¿Qué aplicación tiene utilizar un Buffered Channel como semáforo?</t>
+  </si>
+  <si>
+    <t>Desbloquear deadlocks generados por mala utilización de channels.</t>
+  </si>
+  <si>
+    <t>¿Para qué ayuda utilizar `...` dentro de un parámetro en una función?</t>
+  </si>
+  <si>
+    <t>Para tratar como un slice ese parámetro del cual no conocemos la cantidad exacta de elementos que habrá.</t>
+  </si>
+  <si>
+    <t>¿Cómo se define un método llamado GetId para una clase llamada Employee en Go?</t>
+  </si>
+  <si>
+    <t>func (*Employee) GetId</t>
+  </si>
+  <si>
+    <t>¿Con qué valores se preinicializa un struct cuando es instanciado en Go?</t>
+  </si>
+  <si>
+    <t>Valores por defecto que dependen del tipo.</t>
+  </si>
+  <si>
+    <t>¿Qué comando se utiliza para correr test dentro de Go?</t>
+  </si>
+  <si>
+    <t>go test</t>
+  </si>
+  <si>
+    <t>¿Cómo se define un Channel de solo lectura?</t>
+  </si>
+  <si>
+    <t>¿Qué comando se utiliza para conocer de manera general qué porcentaje del código está cubierta por tests?</t>
+  </si>
+  <si>
+    <t>go test -cover</t>
+  </si>
+  <si>
+    <t>¿Cómo se implementa una interface en Go?</t>
+  </si>
+  <si>
+    <t>http.ListenAndServe</t>
+  </si>
+  <si>
+    <t>¿Con qué método podemos poner en marcha un servidor basado en http?</t>
+  </si>
+  <si>
+    <t>¿Con base a qué concepto se utiliza un Waitgroup?</t>
+  </si>
+  <si>
+    <t>contador</t>
+  </si>
+  <si>
+    <t>¿Cómo se define una función anónima en Go?</t>
+  </si>
+  <si>
+    <t>func() {}()</t>
+  </si>
+  <si>
+    <t>¿Qué problema puede presentar un programa concurrente en caso de elegir erróneamente el tipo de Channel?</t>
+  </si>
+  <si>
+    <t>Se crearía un bloqueo.</t>
+  </si>
+  <si>
+    <t>¿Qué se logra definiendo retornos con nombre?</t>
+  </si>
+  <si>
+    <t>Para utilizar esos parámetros como slices para diferentes funciones.</t>
+  </si>
+  <si>
+    <t>¿Cómo se bloquea un programa cuando se usa WaitGroup?</t>
+  </si>
+  <si>
+    <t>wg.Wait()</t>
+  </si>
+  <si>
+    <t>¿Para qué sirven los Mocks?</t>
+  </si>
+  <si>
+    <t>Para poder testear funciones que tienen dependencias en otras funciones.</t>
+  </si>
+  <si>
+    <t>¿Cómo se define un Channel de solo escritura?</t>
+  </si>
+  <si>
+    <t>chan &lt;-</t>
+  </si>
+  <si>
+    <t>¿Cómo se puede cerrar un Channel en Go?</t>
+  </si>
+  <si>
+    <t>close(chan)</t>
+  </si>
+  <si>
+    <t>¿Cuál es la alternativa para un constructor que recibe parámetros en Go?</t>
+  </si>
+  <si>
+    <t>Crear una función que reciba esos parámetros y cree la instancia del struct pasándole esos valores.</t>
+  </si>
+  <si>
+    <t>¿Cómo se define una interface en Go?</t>
+  </si>
+  <si>
+    <t>type PrintInfo interface</t>
+  </si>
+  <si>
+    <t>¿Cómo se declara el equivalente a una clase en Go?</t>
+  </si>
+  <si>
+    <t>type Employee struct</t>
+  </si>
+  <si>
+    <t>¿Cómo podemos generar el análisis de la utilización de CPU en nuestro programa?</t>
+  </si>
+  <si>
+    <t>go test -cpuprofile=cpu.out</t>
+  </si>
+  <si>
+    <t>¿Cómo se crea un Buffered Channel?</t>
+  </si>
+  <si>
+    <t>make(chan int, longitud)</t>
+  </si>
+  <si>
+    <t>¿Cómo se logra que un struct obtenga todas las propiedades de otro utilizando composición?</t>
+  </si>
+  <si>
+    <t>Creando interfaces que nos permitan definir ese comportamiento.</t>
+  </si>
+  <si>
+    <t>¿Cómo se inicializa un Go Module?</t>
+  </si>
+  <si>
+    <t>go mod init nombre.mod</t>
+  </si>
+  <si>
+    <t>¿Qué palabra clave es utilizada para la multiplexación de diferentes mensajes de los Channels?</t>
   </si>
 </sst>
 </file>
@@ -590,7 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -674,9 +836,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -733,18 +892,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -756,6 +903,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1039,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1110,7 +1284,7 @@
       <c r="A6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="55" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="15">
@@ -1165,7 +1339,7 @@
       <c r="A11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="15">
@@ -1176,7 +1350,7 @@
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15">
@@ -1187,7 +1361,7 @@
       <c r="A13" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="57" t="b">
+      <c r="B13" s="54" t="b">
         <v>0</v>
       </c>
       <c r="C13" s="15">
@@ -1198,7 +1372,7 @@
       <c r="A14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="59" t="b">
+      <c r="B14" s="56" t="b">
         <v>0</v>
       </c>
       <c r="C14" s="15">
@@ -1209,7 +1383,7 @@
       <c r="A15" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="15">
@@ -1220,7 +1394,7 @@
       <c r="A16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="15">
@@ -1487,7 +1661,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="59" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -1696,13 +1870,13 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="B61" s="67" t="s">
+      <c r="B61" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="C61" s="68">
+      <c r="C61" s="61">
         <v>0</v>
       </c>
     </row>
@@ -1713,7 +1887,7 @@
       <c r="B62" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="65">
+      <c r="C62" s="58">
         <v>1</v>
       </c>
     </row>
@@ -1724,7 +1898,7 @@
       <c r="B63" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C63" s="65">
+      <c r="C63" s="58">
         <v>1</v>
       </c>
     </row>
@@ -1735,7 +1909,7 @@
       <c r="B64" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C64" s="65">
+      <c r="C64" s="58">
         <v>1</v>
       </c>
     </row>
@@ -1746,324 +1920,490 @@
       <c r="B65" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="65">
+      <c r="C65" s="58">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
-      <c r="C66" s="38"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
+      <c r="C66" s="35"/>
+    </row>
+    <row r="67" spans="1:3" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="B67" s="3"/>
-      <c r="C67" s="38"/>
+      <c r="C67" s="35"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="55"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="38"/>
+      <c r="C68" s="35"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="38"/>
+      <c r="A69" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="60"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="34"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="60"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="34"/>
+      <c r="A70" s="68" t="s">
+        <v>121</v>
+      </c>
+      <c r="B70" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A71" s="68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="60"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="60"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="34"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="60"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="34"/>
+      <c r="A72" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B72" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C72" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A73" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A74" s="68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="60"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="34"/>
+      <c r="A75" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B75" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C75" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="60"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="34"/>
+      <c r="A76" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="60"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="34"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="60"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="34"/>
+      <c r="A77" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="68"/>
+      <c r="C77" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A78" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="61"/>
-      <c r="B79" s="62"/>
-      <c r="C79" s="35"/>
+      <c r="A79" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="71"/>
+      <c r="C79" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="60"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="38"/>
+      <c r="A80" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="60"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="38"/>
+      <c r="A81" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="60"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="38"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="60"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="38"/>
+      <c r="A82" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A83" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="69">
+        <v>1</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="60"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="38"/>
+      <c r="A84" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B84" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="38"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="38"/>
+      <c r="A85" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="38"/>
+      <c r="A87" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C87" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="38"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="38"/>
+      <c r="A88" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A89" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="38"/>
+      <c r="A90" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="38"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="38"/>
+      <c r="A91" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="38"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="3"/>
-      <c r="B94" s="31"/>
-      <c r="C94" s="38"/>
+      <c r="A93" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A94" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B94" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C94" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="38"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="38"/>
+      <c r="A95" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="42" x14ac:dyDescent="0.35">
+      <c r="A96" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C96" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="38"/>
+      <c r="C97" s="35"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="38"/>
+      <c r="C98" s="35"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="38"/>
+      <c r="C99" s="35"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="38"/>
+      <c r="C100" s="35"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="38"/>
+      <c r="C101" s="35"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="23"/>
       <c r="B102" s="3"/>
-      <c r="C102" s="38"/>
+      <c r="C102" s="35"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
-      <c r="C103" s="38"/>
+      <c r="C103" s="35"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="64"/>
+      <c r="A104" s="57"/>
       <c r="B104" s="3"/>
-      <c r="C104" s="38"/>
+      <c r="C104" s="35"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
-      <c r="C105" s="38"/>
+      <c r="C105" s="35"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
-      <c r="C106" s="38"/>
+      <c r="C106" s="35"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
-      <c r="C107" s="38"/>
+      <c r="C107" s="35"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
-      <c r="C108" s="38"/>
+      <c r="C108" s="35"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
-      <c r="C109" s="38"/>
+      <c r="C109" s="35"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
-      <c r="C110" s="38"/>
+      <c r="C110" s="35"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
-      <c r="C111" s="38"/>
+      <c r="C111" s="35"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
-      <c r="C112" s="38"/>
+      <c r="C112" s="35"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
-      <c r="C113" s="38"/>
+      <c r="C113" s="35"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
-      <c r="C114" s="38"/>
+      <c r="C114" s="35"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
-      <c r="C115" s="38"/>
+      <c r="C115" s="35"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
-      <c r="C116" s="38"/>
+      <c r="C116" s="35"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
-      <c r="C117" s="38"/>
+      <c r="C117" s="35"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
-      <c r="C118" s="38"/>
+      <c r="C118" s="35"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
-      <c r="C119" s="38"/>
+      <c r="C119" s="35"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
-      <c r="C120" s="38"/>
+      <c r="C120" s="35"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
-      <c r="C121" s="38"/>
+      <c r="C121" s="35"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
-      <c r="C122" s="38"/>
+      <c r="C122" s="35"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
-      <c r="C123" s="38"/>
+      <c r="C123" s="35"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
-      <c r="C124" s="38"/>
+      <c r="C124" s="35"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
-      <c r="C125" s="38"/>
+      <c r="C125" s="35"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="3"/>
       <c r="B126" s="31"/>
-      <c r="C126" s="38"/>
+      <c r="C126" s="35"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
-      <c r="C127" s="38"/>
+      <c r="C127" s="35"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
-      <c r="C128" s="38"/>
+      <c r="C128" s="35"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="3"/>
@@ -2112,142 +2452,142 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="3"/>
-      <c r="B138" s="38"/>
+      <c r="B138" s="35"/>
       <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="27"/>
-      <c r="B139" s="38"/>
+      <c r="B139" s="35"/>
       <c r="C139" s="1"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="27"/>
-      <c r="B140" s="38"/>
+      <c r="B140" s="35"/>
       <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="27"/>
-      <c r="B141" s="38"/>
+      <c r="B141" s="35"/>
       <c r="C141" s="1"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="27"/>
-      <c r="B142" s="38"/>
+      <c r="B142" s="35"/>
       <c r="C142" s="1"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="27"/>
-      <c r="B143" s="38"/>
+      <c r="B143" s="35"/>
       <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="27"/>
-      <c r="B144" s="38"/>
+      <c r="B144" s="35"/>
       <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="27"/>
-      <c r="B145" s="38"/>
+      <c r="B145" s="35"/>
       <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="27"/>
-      <c r="B146" s="38"/>
+      <c r="B146" s="35"/>
       <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="27"/>
-      <c r="B147" s="38"/>
+      <c r="B147" s="35"/>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="27"/>
-      <c r="B148" s="38"/>
+      <c r="B148" s="35"/>
       <c r="C148" s="1"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="27"/>
-      <c r="B149" s="38"/>
+      <c r="B149" s="35"/>
       <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="27"/>
-      <c r="B150" s="38"/>
+      <c r="B150" s="35"/>
       <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="27"/>
-      <c r="B151" s="38"/>
+      <c r="B151" s="35"/>
       <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="27"/>
-      <c r="B152" s="38"/>
+      <c r="B152" s="35"/>
       <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="27"/>
-      <c r="B153" s="38"/>
+      <c r="B153" s="35"/>
       <c r="C153" s="1"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="27"/>
-      <c r="B154" s="38"/>
+      <c r="B154" s="35"/>
       <c r="C154" s="1"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="27"/>
-      <c r="B155" s="38"/>
+      <c r="B155" s="35"/>
       <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="27"/>
-      <c r="B156" s="38"/>
+      <c r="B156" s="35"/>
       <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="27"/>
-      <c r="B157" s="38"/>
+      <c r="B157" s="35"/>
       <c r="C157" s="1"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="27"/>
-      <c r="B158" s="38"/>
+      <c r="B158" s="35"/>
       <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="27"/>
-      <c r="B159" s="38"/>
+      <c r="B159" s="35"/>
       <c r="C159" s="1"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="27"/>
-      <c r="B160" s="38"/>
+      <c r="B160" s="35"/>
       <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="27"/>
-      <c r="B161" s="38"/>
+      <c r="B161" s="35"/>
       <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="27"/>
-      <c r="B162" s="38"/>
+      <c r="B162" s="35"/>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="27"/>
-      <c r="B163" s="38"/>
+      <c r="B163" s="35"/>
       <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="27"/>
-      <c r="B164" s="38"/>
+      <c r="B164" s="35"/>
       <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="27"/>
-      <c r="B165" s="38"/>
+      <c r="B165" s="35"/>
       <c r="C165" s="1"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
@@ -2255,87 +2595,87 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="3"/>
-      <c r="B168" s="38"/>
+      <c r="B168" s="35"/>
       <c r="C168" s="1"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="27"/>
-      <c r="B169" s="38"/>
+      <c r="B169" s="35"/>
       <c r="C169" s="1"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="27"/>
-      <c r="B170" s="38"/>
+      <c r="B170" s="35"/>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="27"/>
-      <c r="B171" s="38"/>
+      <c r="B171" s="35"/>
       <c r="C171" s="1"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="27"/>
-      <c r="B172" s="38"/>
+      <c r="B172" s="35"/>
       <c r="C172" s="1"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="27"/>
-      <c r="B173" s="38"/>
+      <c r="B173" s="35"/>
       <c r="C173" s="1"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="27"/>
-      <c r="B174" s="38"/>
+      <c r="B174" s="35"/>
       <c r="C174" s="1"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="27"/>
-      <c r="B175" s="38"/>
+      <c r="B175" s="35"/>
       <c r="C175" s="1"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="27"/>
-      <c r="B176" s="38"/>
+      <c r="B176" s="35"/>
       <c r="C176" s="1"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="27"/>
-      <c r="B177" s="38"/>
+      <c r="B177" s="35"/>
       <c r="C177" s="1"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="27"/>
-      <c r="B178" s="38"/>
+      <c r="B178" s="35"/>
       <c r="C178" s="1"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="27"/>
-      <c r="B179" s="38"/>
+      <c r="B179" s="35"/>
       <c r="C179" s="1"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="27"/>
-      <c r="B180" s="38"/>
+      <c r="B180" s="35"/>
       <c r="C180" s="1"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="27"/>
-      <c r="B181" s="38"/>
+      <c r="B181" s="35"/>
       <c r="C181" s="1"/>
     </row>
     <row r="182" spans="1:3" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="27"/>
-      <c r="B182" s="38"/>
+      <c r="B182" s="35"/>
       <c r="C182" s="1"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="27"/>
-      <c r="B183" s="38"/>
+      <c r="B183" s="35"/>
       <c r="C183" s="1"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="27"/>
-      <c r="B184" s="38"/>
+      <c r="B184" s="35"/>
       <c r="C184" s="1"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -2343,162 +2683,162 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="30"/>
-      <c r="B186" s="39"/>
+      <c r="B186" s="36"/>
       <c r="C186" s="1"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="3"/>
-      <c r="B187" s="40"/>
+      <c r="B187" s="37"/>
       <c r="C187" s="1"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="27"/>
-      <c r="B188" s="41"/>
+      <c r="B188" s="38"/>
       <c r="C188" s="1"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="27"/>
-      <c r="B189" s="40"/>
+      <c r="B189" s="37"/>
       <c r="C189" s="1"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="27"/>
-      <c r="B190" s="40"/>
+      <c r="B190" s="37"/>
       <c r="C190" s="1"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="27"/>
-      <c r="B191" s="40"/>
+      <c r="B191" s="37"/>
       <c r="C191" s="1"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="27"/>
-      <c r="B192" s="40"/>
+      <c r="B192" s="37"/>
       <c r="C192" s="1"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="27"/>
-      <c r="B193" s="40"/>
+      <c r="B193" s="37"/>
       <c r="C193" s="1"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="27"/>
-      <c r="B194" s="40"/>
+      <c r="B194" s="37"/>
       <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="27"/>
-      <c r="B195" s="39"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="1"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="27"/>
-      <c r="B196" s="40"/>
+      <c r="B196" s="37"/>
       <c r="C196" s="1"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="27"/>
-      <c r="B197" s="40"/>
+      <c r="B197" s="37"/>
       <c r="C197" s="1"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="27"/>
-      <c r="B198" s="39"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="1"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="27"/>
-      <c r="B199" s="40"/>
+      <c r="B199" s="37"/>
       <c r="C199" s="1"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="27"/>
-      <c r="B200" s="39"/>
+      <c r="B200" s="36"/>
       <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="27"/>
-      <c r="B201" s="39"/>
+      <c r="B201" s="36"/>
       <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="27"/>
-      <c r="B202" s="40"/>
+      <c r="B202" s="37"/>
       <c r="C202" s="1"/>
     </row>
     <row r="203" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A203" s="42"/>
-      <c r="B203" s="39"/>
+      <c r="A203" s="39"/>
+      <c r="B203" s="36"/>
       <c r="C203" s="1"/>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="3"/>
-      <c r="B204" s="39"/>
+      <c r="B204" s="36"/>
       <c r="C204" s="1"/>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="27"/>
-      <c r="B205" s="43"/>
+      <c r="B205" s="40"/>
       <c r="C205" s="1"/>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="27"/>
-      <c r="B206" s="43"/>
+      <c r="B206" s="40"/>
       <c r="C206" s="1"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="27"/>
-      <c r="B207" s="43"/>
+      <c r="B207" s="40"/>
       <c r="C207" s="1"/>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="27"/>
-      <c r="B208" s="43"/>
+      <c r="B208" s="40"/>
       <c r="C208" s="1"/>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="3"/>
-      <c r="B209" s="43"/>
+      <c r="B209" s="40"/>
       <c r="C209" s="1"/>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="27"/>
-      <c r="B210" s="43"/>
+      <c r="B210" s="40"/>
       <c r="C210" s="1"/>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="27"/>
-      <c r="B211" s="43"/>
+      <c r="B211" s="40"/>
       <c r="C211" s="1"/>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="27"/>
-      <c r="B212" s="43"/>
+      <c r="B212" s="40"/>
       <c r="C212" s="1"/>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="27"/>
-      <c r="B213" s="43"/>
+      <c r="B213" s="40"/>
       <c r="C213" s="1"/>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="27"/>
-      <c r="B214" s="43"/>
+      <c r="B214" s="40"/>
       <c r="C214" s="1"/>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="27"/>
-      <c r="B215" s="43"/>
+      <c r="B215" s="40"/>
       <c r="C215" s="1"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="27"/>
-      <c r="B216" s="43"/>
+      <c r="B216" s="40"/>
       <c r="C216" s="1"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="27"/>
-      <c r="B217" s="43"/>
+      <c r="B217" s="40"/>
       <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.35">
@@ -2510,7 +2850,7 @@
       <c r="A219" s="27"/>
     </row>
     <row r="220" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A220" s="44"/>
+      <c r="A220" s="41"/>
       <c r="B220" s="3"/>
       <c r="C220" s="1"/>
     </row>
@@ -2618,7 +2958,7 @@
       <c r="A241" s="3"/>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A242" s="45"/>
+      <c r="A242" s="42"/>
       <c r="B242" s="19"/>
       <c r="C242" s="1"/>
     </row>
@@ -2673,7 +3013,7 @@
       <c r="C252" s="1"/>
     </row>
     <row r="253" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A253" s="44"/>
+      <c r="A253" s="41"/>
       <c r="B253" s="19"/>
       <c r="C253" s="1"/>
     </row>
@@ -2703,7 +3043,7 @@
       <c r="C258" s="1"/>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A259" s="46"/>
+      <c r="A259" s="43"/>
       <c r="B259" s="19"/>
       <c r="C259" s="1"/>
     </row>
@@ -2729,12 +3069,12 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="31"/>
-      <c r="B264" s="47"/>
+      <c r="B264" s="44"/>
       <c r="C264" s="1"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="3"/>
-      <c r="B265" s="48"/>
+      <c r="B265" s="45"/>
       <c r="C265" s="1"/>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.35">
@@ -2744,128 +3084,128 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="3"/>
-      <c r="B267" s="48"/>
+      <c r="B267" s="45"/>
       <c r="C267" s="1"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="3"/>
-      <c r="B268" s="48"/>
+      <c r="B268" s="45"/>
       <c r="C268" s="1"/>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="3"/>
-      <c r="B269" s="40"/>
+      <c r="B269" s="37"/>
       <c r="C269" s="1"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="27"/>
-      <c r="B270" s="40"/>
+      <c r="B270" s="37"/>
       <c r="C270" s="1"/>
     </row>
     <row r="271" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A271" s="44"/>
-      <c r="B271" s="40"/>
+      <c r="A271" s="41"/>
+      <c r="B271" s="37"/>
       <c r="C271" s="1"/>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="3"/>
-      <c r="B272" s="48"/>
-      <c r="C272" s="38"/>
+      <c r="B272" s="45"/>
+      <c r="C272" s="35"/>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="3"/>
-      <c r="B273" s="47"/>
-      <c r="C273" s="38"/>
+      <c r="B273" s="44"/>
+      <c r="C273" s="35"/>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="3"/>
-      <c r="B274" s="48"/>
-      <c r="C274" s="38"/>
+      <c r="B274" s="45"/>
+      <c r="C274" s="35"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
-      <c r="B275" s="48"/>
-      <c r="C275" s="38"/>
+      <c r="B275" s="45"/>
+      <c r="C275" s="35"/>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="3"/>
-      <c r="B276" s="47"/>
-      <c r="C276" s="38"/>
+      <c r="B276" s="44"/>
+      <c r="C276" s="35"/>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="3"/>
-      <c r="B277" s="48"/>
-      <c r="C277" s="38"/>
+      <c r="B277" s="45"/>
+      <c r="C277" s="35"/>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="3"/>
-      <c r="B278" s="47"/>
-      <c r="C278" s="38"/>
+      <c r="B278" s="44"/>
+      <c r="C278" s="35"/>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="3"/>
-      <c r="B279" s="47"/>
-      <c r="C279" s="38"/>
+      <c r="B279" s="44"/>
+      <c r="C279" s="35"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="3"/>
-      <c r="B280" s="48"/>
-      <c r="C280" s="38"/>
+      <c r="B280" s="45"/>
+      <c r="C280" s="35"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="3"/>
-      <c r="B281" s="47"/>
-      <c r="C281" s="38"/>
+      <c r="B281" s="44"/>
+      <c r="C281" s="35"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="3"/>
-      <c r="B282" s="47"/>
-      <c r="C282" s="38"/>
+      <c r="B282" s="44"/>
+      <c r="C282" s="35"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="3"/>
-      <c r="B283" s="49"/>
-      <c r="C283" s="38"/>
+      <c r="B283" s="46"/>
+      <c r="C283" s="35"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
-      <c r="C284" s="38"/>
+      <c r="C284" s="35"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
-      <c r="C285" s="38"/>
+      <c r="C285" s="35"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
-      <c r="B286" s="50"/>
-      <c r="C286" s="38"/>
+      <c r="B286" s="47"/>
+      <c r="C286" s="35"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
-      <c r="B287" s="50"/>
-      <c r="C287" s="38"/>
+      <c r="B287" s="47"/>
+      <c r="C287" s="35"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
-      <c r="B288" s="51"/>
-      <c r="C288" s="38"/>
+      <c r="B288" s="48"/>
+      <c r="C288" s="35"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="3"/>
-      <c r="B289" s="50"/>
-      <c r="C289" s="52"/>
+      <c r="B289" s="47"/>
+      <c r="C289" s="49"/>
     </row>
     <row r="290" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A290" s="44"/>
-      <c r="B290" s="50"/>
-      <c r="C290" s="52"/>
+      <c r="A290" s="41"/>
+      <c r="B290" s="47"/>
+      <c r="C290" s="49"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="3"/>
-      <c r="B291" s="50"/>
-      <c r="C291" s="52"/>
+      <c r="B291" s="47"/>
+      <c r="C291" s="49"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
@@ -2874,7 +3214,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="3"/>
-      <c r="B293" s="50"/>
+      <c r="B293" s="47"/>
       <c r="C293" s="3"/>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.35">
@@ -2919,8 +3259,8 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="27"/>
-      <c r="B302" s="53"/>
-      <c r="C302" s="51"/>
+      <c r="B302" s="50"/>
+      <c r="C302" s="48"/>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="3"/>
@@ -2979,8 +3319,8 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="3"/>
-      <c r="B314" s="53"/>
-      <c r="C314" s="51"/>
+      <c r="B314" s="50"/>
+      <c r="C314" s="48"/>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="3"/>
@@ -2989,8 +3329,8 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="3"/>
-      <c r="B316" s="53"/>
-      <c r="C316" s="51"/>
+      <c r="B316" s="50"/>
+      <c r="C316" s="48"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="3"/>
@@ -3009,58 +3349,58 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="27"/>
-      <c r="B320" s="48"/>
+      <c r="B320" s="45"/>
       <c r="C320" s="1"/>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="3"/>
-      <c r="B321" s="50"/>
-      <c r="C321" s="52"/>
+      <c r="B321" s="47"/>
+      <c r="C321" s="49"/>
     </row>
     <row r="322" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A322" s="44"/>
-      <c r="B322" s="50"/>
-      <c r="C322" s="52"/>
+      <c r="A322" s="41"/>
+      <c r="B322" s="47"/>
+      <c r="C322" s="49"/>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="3"/>
-      <c r="B323" s="50"/>
-      <c r="C323" s="52"/>
+      <c r="B323" s="47"/>
+      <c r="C323" s="49"/>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="27"/>
-      <c r="B324" s="40"/>
-      <c r="C324" s="52"/>
+      <c r="B324" s="37"/>
+      <c r="C324" s="49"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="27"/>
-      <c r="B325" s="40"/>
-      <c r="C325" s="52"/>
+      <c r="B325" s="37"/>
+      <c r="C325" s="49"/>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="27"/>
-      <c r="B326" s="40"/>
-      <c r="C326" s="52"/>
+      <c r="B326" s="37"/>
+      <c r="C326" s="49"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="27"/>
-      <c r="B327" s="40"/>
-      <c r="C327" s="52"/>
+      <c r="B327" s="37"/>
+      <c r="C327" s="49"/>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="27"/>
-      <c r="B328" s="39"/>
-      <c r="C328" s="52"/>
+      <c r="B328" s="36"/>
+      <c r="C328" s="49"/>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="27"/>
-      <c r="B329" s="40"/>
-      <c r="C329" s="52"/>
+      <c r="B329" s="37"/>
+      <c r="C329" s="49"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="27"/>
-      <c r="B330" s="40"/>
-      <c r="C330" s="52"/>
+      <c r="B330" s="37"/>
+      <c r="C330" s="49"/>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="27"/>
@@ -3074,7 +3414,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="27"/>
-      <c r="B333" s="39"/>
+      <c r="B333" s="36"/>
       <c r="C333" s="1"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.35">
@@ -3084,82 +3424,82 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="27"/>
-      <c r="B335" s="40"/>
+      <c r="B335" s="37"/>
       <c r="C335" s="1"/>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="27"/>
-      <c r="B336" s="39"/>
+      <c r="B336" s="36"/>
       <c r="C336" s="1"/>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="27"/>
-      <c r="B337" s="39"/>
+      <c r="B337" s="36"/>
       <c r="C337" s="1"/>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="27"/>
-      <c r="B338" s="43"/>
+      <c r="B338" s="40"/>
       <c r="C338" s="1"/>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="27"/>
-      <c r="B339" s="39"/>
+      <c r="B339" s="36"/>
       <c r="C339" s="1"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="27"/>
-      <c r="B340" s="39"/>
+      <c r="B340" s="36"/>
       <c r="C340" s="1"/>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" s="27"/>
-      <c r="B341" s="40"/>
+      <c r="B341" s="37"/>
       <c r="C341" s="1"/>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" s="27"/>
-      <c r="B342" s="38"/>
+      <c r="B342" s="35"/>
       <c r="C342" s="1"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" s="27"/>
-      <c r="B343" s="38"/>
+      <c r="B343" s="35"/>
       <c r="C343" s="1"/>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" s="27"/>
-      <c r="B344" s="38"/>
+      <c r="B344" s="35"/>
       <c r="C344" s="1"/>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" s="27"/>
-      <c r="B345" s="38"/>
+      <c r="B345" s="35"/>
       <c r="C345" s="1"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" s="27"/>
-      <c r="B346" s="38"/>
+      <c r="B346" s="35"/>
       <c r="C346" s="1"/>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" s="27"/>
-      <c r="B347" s="40"/>
+      <c r="B347" s="37"/>
       <c r="C347" s="1"/>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" s="27"/>
-      <c r="B348" s="40"/>
+      <c r="B348" s="37"/>
       <c r="C348" s="1"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" s="27"/>
-      <c r="B349" s="40"/>
+      <c r="B349" s="37"/>
       <c r="C349" s="1"/>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" s="27"/>
-      <c r="B350" s="38"/>
+      <c r="B350" s="35"/>
       <c r="C350" s="1"/>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.35">
@@ -3169,47 +3509,47 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" s="27"/>
-      <c r="B352" s="38"/>
+      <c r="B352" s="35"/>
       <c r="C352" s="1"/>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" s="27"/>
-      <c r="B353" s="38"/>
+      <c r="B353" s="35"/>
       <c r="C353" s="1"/>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" s="27"/>
-      <c r="B354" s="38"/>
+      <c r="B354" s="35"/>
       <c r="C354" s="1"/>
     </row>
     <row r="355" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A355" s="44"/>
-      <c r="B355" s="50"/>
-      <c r="C355" s="52"/>
+      <c r="A355" s="41"/>
+      <c r="B355" s="47"/>
+      <c r="C355" s="49"/>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" s="27"/>
-      <c r="B356" s="38"/>
+      <c r="B356" s="35"/>
       <c r="C356" s="1"/>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" s="27"/>
-      <c r="B357" s="38"/>
+      <c r="B357" s="35"/>
       <c r="C357" s="1"/>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" s="27"/>
-      <c r="B358" s="38"/>
+      <c r="B358" s="35"/>
       <c r="C358" s="1"/>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" s="29"/>
-      <c r="B359" s="38"/>
+      <c r="B359" s="35"/>
       <c r="C359" s="1"/>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" s="27"/>
-      <c r="B360" s="38"/>
+      <c r="B360" s="35"/>
       <c r="C360" s="1"/>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.35">
@@ -3219,57 +3559,57 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" s="27"/>
-      <c r="B362" s="38"/>
+      <c r="B362" s="35"/>
       <c r="C362" s="1"/>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" s="27"/>
-      <c r="B363" s="38"/>
+      <c r="B363" s="35"/>
       <c r="C363" s="1"/>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" s="27"/>
-      <c r="B364" s="38"/>
+      <c r="B364" s="35"/>
       <c r="C364" s="1"/>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" s="27"/>
-      <c r="B365" s="38"/>
+      <c r="B365" s="35"/>
       <c r="C365" s="1"/>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" s="27"/>
-      <c r="B366" s="38"/>
+      <c r="B366" s="35"/>
       <c r="C366" s="1"/>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" s="27"/>
-      <c r="B367" s="38"/>
+      <c r="B367" s="35"/>
       <c r="C367" s="1"/>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" s="27"/>
-      <c r="B368" s="38"/>
+      <c r="B368" s="35"/>
       <c r="C368" s="1"/>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" s="27"/>
-      <c r="B369" s="38"/>
+      <c r="B369" s="35"/>
       <c r="C369" s="1"/>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" s="27"/>
-      <c r="B370" s="38"/>
+      <c r="B370" s="35"/>
       <c r="C370" s="1"/>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" s="27"/>
-      <c r="B371" s="38"/>
+      <c r="B371" s="35"/>
       <c r="C371" s="1"/>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" s="27"/>
-      <c r="B372" s="38"/>
+      <c r="B372" s="35"/>
       <c r="C372" s="1"/>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.35">
@@ -3297,7 +3637,7 @@
       <c r="C378" s="1"/>
     </row>
     <row r="379" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A379" s="44"/>
+      <c r="A379" s="41"/>
       <c r="B379" s="19"/>
       <c r="C379" s="1"/>
     </row>
@@ -3372,9 +3712,9 @@
       <c r="C393" s="1"/>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A394" s="37"/>
-      <c r="B394" s="37"/>
-      <c r="C394" s="37"/>
+      <c r="A394" s="34"/>
+      <c r="B394" s="34"/>
+      <c r="C394" s="34"/>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" s="3"/>
@@ -3402,13 +3742,13 @@
       <c r="C399" s="1"/>
     </row>
     <row r="400" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A400" s="44"/>
+      <c r="A400" s="41"/>
       <c r="B400" s="19"/>
       <c r="C400" s="1"/>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" s="27"/>
-      <c r="B401" s="54"/>
+      <c r="B401" s="51"/>
       <c r="C401" s="1"/>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.35">
@@ -3491,7 +3831,7 @@
       <c r="C418" s="1"/>
     </row>
     <row r="419" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A419" s="44"/>
+      <c r="A419" s="41"/>
       <c r="B419" s="19"/>
       <c r="C419" s="1"/>
     </row>
@@ -3557,7 +3897,7 @@
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A432" s="27"/>
-      <c r="B432" s="54"/>
+      <c r="B432" s="51"/>
       <c r="C432" s="1"/>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.35">
@@ -3576,7 +3916,7 @@
       <c r="C435" s="1"/>
     </row>
     <row r="436" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A436" s="44"/>
+      <c r="A436" s="41"/>
       <c r="B436" s="19"/>
       <c r="C436" s="1"/>
     </row>
@@ -3611,7 +3951,7 @@
       <c r="C442" s="1"/>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A443" s="37"/>
+      <c r="A443" s="34"/>
       <c r="B443" s="3"/>
       <c r="C443" s="1"/>
     </row>
@@ -3631,7 +3971,7 @@
       <c r="C446" s="1"/>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A447" s="55"/>
+      <c r="A447" s="52"/>
       <c r="B447" s="3"/>
       <c r="C447" s="1"/>
     </row>
@@ -3656,158 +3996,158 @@
       <c r="C451" s="1"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B453" s="53"/>
-      <c r="C453" s="51"/>
+      <c r="B453" s="50"/>
+      <c r="C453" s="48"/>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A454" s="27"/>
-      <c r="B454" s="53"/>
-      <c r="C454" s="51"/>
+      <c r="B454" s="50"/>
+      <c r="C454" s="48"/>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A455" s="27"/>
-      <c r="B455" s="52"/>
-      <c r="C455" s="51"/>
+      <c r="B455" s="49"/>
+      <c r="C455" s="48"/>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A456" s="27"/>
-      <c r="B456" s="53"/>
-      <c r="C456" s="51"/>
+      <c r="B456" s="50"/>
+      <c r="C456" s="48"/>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A457" s="27"/>
-      <c r="B457" s="53"/>
-      <c r="C457" s="51"/>
+      <c r="B457" s="50"/>
+      <c r="C457" s="48"/>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A458" s="27"/>
-      <c r="B458" s="53"/>
-      <c r="C458" s="51"/>
+      <c r="B458" s="50"/>
+      <c r="C458" s="48"/>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A459" s="27"/>
-      <c r="B459" s="53"/>
-      <c r="C459" s="51"/>
+      <c r="B459" s="50"/>
+      <c r="C459" s="48"/>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A460" s="27"/>
-      <c r="B460" s="53"/>
-      <c r="C460" s="51"/>
+      <c r="B460" s="50"/>
+      <c r="C460" s="48"/>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A461" s="27"/>
-      <c r="B461" s="53"/>
-      <c r="C461" s="51"/>
+      <c r="B461" s="50"/>
+      <c r="C461" s="48"/>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A462" s="27"/>
-      <c r="B462" s="53"/>
-      <c r="C462" s="51"/>
+      <c r="B462" s="50"/>
+      <c r="C462" s="48"/>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A463" s="27"/>
-      <c r="B463" s="53"/>
-      <c r="C463" s="51"/>
+      <c r="B463" s="50"/>
+      <c r="C463" s="48"/>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A464" s="27"/>
-      <c r="B464" s="53"/>
-      <c r="C464" s="51"/>
+      <c r="B464" s="50"/>
+      <c r="C464" s="48"/>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A465" s="27"/>
-      <c r="B465" s="53"/>
-      <c r="C465" s="51"/>
+      <c r="B465" s="50"/>
+      <c r="C465" s="48"/>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A466" s="27"/>
-      <c r="B466" s="53"/>
-      <c r="C466" s="51"/>
+      <c r="B466" s="50"/>
+      <c r="C466" s="48"/>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A467" s="27"/>
-      <c r="B467" s="53"/>
-      <c r="C467" s="51"/>
+      <c r="B467" s="50"/>
+      <c r="C467" s="48"/>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A468" s="27"/>
-      <c r="B468" s="53"/>
-      <c r="C468" s="51"/>
+      <c r="B468" s="50"/>
+      <c r="C468" s="48"/>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A469" s="27"/>
-      <c r="B469" s="53"/>
-      <c r="C469" s="51"/>
+      <c r="B469" s="50"/>
+      <c r="C469" s="48"/>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A470" s="27"/>
-      <c r="B470" s="53"/>
-      <c r="C470" s="51"/>
+      <c r="B470" s="50"/>
+      <c r="C470" s="48"/>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A471" s="27"/>
-      <c r="B471" s="53"/>
-      <c r="C471" s="51"/>
+      <c r="B471" s="50"/>
+      <c r="C471" s="48"/>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A472" s="27"/>
-      <c r="B472" s="53"/>
-      <c r="C472" s="51"/>
+      <c r="B472" s="50"/>
+      <c r="C472" s="48"/>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A473" s="27"/>
-      <c r="B473" s="53"/>
-      <c r="C473" s="51"/>
+      <c r="B473" s="50"/>
+      <c r="C473" s="48"/>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A474" s="27"/>
-      <c r="B474" s="53"/>
-      <c r="C474" s="51"/>
+      <c r="B474" s="50"/>
+      <c r="C474" s="48"/>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A475" s="27"/>
-      <c r="B475" s="53"/>
-      <c r="C475" s="51"/>
+      <c r="B475" s="50"/>
+      <c r="C475" s="48"/>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A476" s="27"/>
-      <c r="B476" s="53"/>
-      <c r="C476" s="51"/>
+      <c r="B476" s="50"/>
+      <c r="C476" s="48"/>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A477" s="27"/>
-      <c r="B477" s="52"/>
-      <c r="C477" s="51"/>
+      <c r="B477" s="49"/>
+      <c r="C477" s="48"/>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A478" s="27"/>
-      <c r="B478" s="53"/>
-      <c r="C478" s="51"/>
+      <c r="B478" s="50"/>
+      <c r="C478" s="48"/>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A479" s="27"/>
-      <c r="B479" s="53"/>
-      <c r="C479" s="51"/>
+      <c r="B479" s="50"/>
+      <c r="C479" s="48"/>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A480" s="27"/>
-      <c r="B480" s="53"/>
-      <c r="C480" s="51"/>
+      <c r="B480" s="50"/>
+      <c r="C480" s="48"/>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A481" s="27"/>
-      <c r="B481" s="53"/>
-      <c r="C481" s="51"/>
+      <c r="B481" s="50"/>
+      <c r="C481" s="48"/>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A482" s="27"/>
-      <c r="B482" s="53"/>
-      <c r="C482" s="51"/>
+      <c r="B482" s="50"/>
+      <c r="C482" s="48"/>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A483" s="27"/>
-      <c r="B483" s="53"/>
-      <c r="C483" s="51"/>
+      <c r="B483" s="50"/>
+      <c r="C483" s="48"/>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A484" s="27"/>
@@ -3881,7 +4221,7 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A500" s="27"/>
-      <c r="B500" s="36"/>
+      <c r="B500" s="33"/>
       <c r="C500" s="1"/>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.35">
@@ -3940,7 +4280,7 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A512" s="27"/>
-      <c r="B512" s="54"/>
+      <c r="B512" s="51"/>
       <c r="C512" s="1"/>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.35">
@@ -3962,281 +4302,281 @@
       <c r="A516" s="27"/>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B518" s="38"/>
+      <c r="B518" s="35"/>
       <c r="C518" s="1"/>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A519" s="27"/>
-      <c r="B519" s="38"/>
+      <c r="B519" s="35"/>
       <c r="C519" s="1"/>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A520" s="27"/>
-      <c r="B520" s="38"/>
+      <c r="B520" s="35"/>
       <c r="C520" s="1"/>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A521" s="27"/>
-      <c r="B521" s="38"/>
+      <c r="B521" s="35"/>
       <c r="C521" s="1"/>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A522" s="27"/>
-      <c r="B522" s="38"/>
+      <c r="B522" s="35"/>
       <c r="C522" s="1"/>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A523" s="27"/>
-      <c r="B523" s="38"/>
+      <c r="B523" s="35"/>
       <c r="C523" s="1"/>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A524" s="27"/>
-      <c r="B524" s="38"/>
+      <c r="B524" s="35"/>
       <c r="C524" s="1"/>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A525" s="27"/>
-      <c r="B525" s="38"/>
+      <c r="B525" s="35"/>
       <c r="C525" s="1"/>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A526" s="27"/>
-      <c r="B526" s="38"/>
+      <c r="B526" s="35"/>
       <c r="C526" s="1"/>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A527" s="27"/>
-      <c r="B527" s="38"/>
+      <c r="B527" s="35"/>
       <c r="C527" s="1"/>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A528" s="27"/>
-      <c r="B528" s="38"/>
+      <c r="B528" s="35"/>
       <c r="C528" s="1"/>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A529" s="27"/>
-      <c r="B529" s="38"/>
+      <c r="B529" s="35"/>
       <c r="C529" s="1"/>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A530" s="27"/>
-      <c r="B530" s="38"/>
+      <c r="B530" s="35"/>
       <c r="C530" s="1"/>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A531" s="27"/>
-      <c r="B531" s="38"/>
+      <c r="B531" s="35"/>
       <c r="C531" s="1"/>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A532" s="27"/>
-      <c r="B532" s="38"/>
+      <c r="B532" s="35"/>
       <c r="C532" s="1"/>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A533" s="27"/>
-      <c r="B533" s="38"/>
+      <c r="B533" s="35"/>
       <c r="C533" s="1"/>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A534" s="27"/>
-      <c r="B534" s="38"/>
+      <c r="B534" s="35"/>
       <c r="C534" s="1"/>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A535" s="27"/>
-      <c r="B535" s="38"/>
+      <c r="B535" s="35"/>
       <c r="C535" s="1"/>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A536" s="27"/>
-      <c r="B536" s="38"/>
+      <c r="B536" s="35"/>
       <c r="C536" s="1"/>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A537" s="27"/>
-      <c r="B537" s="38"/>
+      <c r="B537" s="35"/>
       <c r="C537" s="1"/>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A538" s="27"/>
-      <c r="B538" s="38"/>
+      <c r="B538" s="35"/>
       <c r="C538" s="1"/>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A539" s="27"/>
-      <c r="B539" s="38"/>
+      <c r="B539" s="35"/>
       <c r="C539" s="1"/>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A540" s="27"/>
-      <c r="B540" s="38"/>
+      <c r="B540" s="35"/>
       <c r="C540" s="1"/>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A541" s="27"/>
-      <c r="B541" s="38"/>
+      <c r="B541" s="35"/>
       <c r="C541" s="1"/>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A542" s="27"/>
-      <c r="B542" s="38"/>
+      <c r="B542" s="35"/>
       <c r="C542" s="1"/>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A543" s="27"/>
-      <c r="B543" s="38"/>
+      <c r="B543" s="35"/>
       <c r="C543" s="1"/>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A544" s="27"/>
-      <c r="B544" s="56"/>
+      <c r="B544" s="53"/>
       <c r="C544" s="1"/>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A545" s="27"/>
-      <c r="B545" s="38"/>
+      <c r="B545" s="35"/>
       <c r="C545" s="1"/>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A546" s="27"/>
-      <c r="B546" s="38"/>
+      <c r="B546" s="35"/>
       <c r="C546" s="1"/>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A547" s="27"/>
-      <c r="B547" s="38"/>
+      <c r="B547" s="35"/>
       <c r="C547" s="1"/>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A548" s="27"/>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B550" s="38"/>
+      <c r="B550" s="35"/>
       <c r="C550" s="1"/>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A551" s="27"/>
-      <c r="B551" s="38"/>
+      <c r="B551" s="35"/>
       <c r="C551" s="1"/>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A552" s="27"/>
-      <c r="B552" s="38"/>
+      <c r="B552" s="35"/>
       <c r="C552" s="1"/>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A553" s="27"/>
-      <c r="B553" s="38"/>
+      <c r="B553" s="35"/>
       <c r="C553" s="1"/>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A554" s="27"/>
-      <c r="B554" s="38"/>
+      <c r="B554" s="35"/>
       <c r="C554" s="1"/>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A555" s="27"/>
-      <c r="B555" s="38"/>
+      <c r="B555" s="35"/>
       <c r="C555" s="1"/>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A556" s="27"/>
-      <c r="B556" s="38"/>
+      <c r="B556" s="35"/>
       <c r="C556" s="1"/>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A557" s="27"/>
-      <c r="B557" s="38"/>
+      <c r="B557" s="35"/>
       <c r="C557" s="1"/>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A558" s="27"/>
-      <c r="B558" s="38"/>
+      <c r="B558" s="35"/>
       <c r="C558" s="1"/>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A559" s="27"/>
-      <c r="B559" s="38"/>
+      <c r="B559" s="35"/>
       <c r="C559" s="1"/>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A560" s="27"/>
-      <c r="B560" s="38"/>
+      <c r="B560" s="35"/>
       <c r="C560" s="1"/>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A561" s="27"/>
-      <c r="B561" s="38"/>
+      <c r="B561" s="35"/>
       <c r="C561" s="1"/>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A562" s="27"/>
-      <c r="B562" s="38"/>
+      <c r="B562" s="35"/>
       <c r="C562" s="1"/>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A563" s="27"/>
-      <c r="B563" s="38"/>
+      <c r="B563" s="35"/>
       <c r="C563" s="1"/>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A564" s="27"/>
-      <c r="B564" s="38"/>
+      <c r="B564" s="35"/>
       <c r="C564" s="1"/>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A565" s="27"/>
-      <c r="B565" s="38"/>
+      <c r="B565" s="35"/>
       <c r="C565" s="1"/>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A566" s="27"/>
-      <c r="B566" s="38"/>
+      <c r="B566" s="35"/>
       <c r="C566" s="1"/>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A567" s="27"/>
-      <c r="B567" s="38"/>
+      <c r="B567" s="35"/>
       <c r="C567" s="1"/>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A568" s="27"/>
-      <c r="B568" s="38"/>
+      <c r="B568" s="35"/>
       <c r="C568" s="1"/>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A569" s="27"/>
-      <c r="B569" s="38"/>
+      <c r="B569" s="35"/>
       <c r="C569" s="1"/>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A570" s="27"/>
-      <c r="B570" s="38"/>
+      <c r="B570" s="35"/>
       <c r="C570" s="1"/>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A571" s="27"/>
-      <c r="B571" s="38"/>
+      <c r="B571" s="35"/>
       <c r="C571" s="1"/>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A572" s="27"/>
-      <c r="B572" s="38"/>
+      <c r="B572" s="35"/>
       <c r="C572" s="1"/>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A573" s="27"/>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B575" s="38"/>
+      <c r="B575" s="35"/>
       <c r="C575" s="1"/>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A576" s="27"/>
-      <c r="B576" s="38"/>
+      <c r="B576" s="35"/>
       <c r="C576" s="1"/>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.35">
@@ -4256,22 +4596,22 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A580" s="27"/>
-      <c r="B580" s="38"/>
+      <c r="B580" s="35"/>
       <c r="C580" s="1"/>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A581" s="27"/>
-      <c r="B581" s="38"/>
+      <c r="B581" s="35"/>
       <c r="C581" s="1"/>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A582" s="27"/>
-      <c r="B582" s="38"/>
+      <c r="B582" s="35"/>
       <c r="C582" s="1"/>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A583" s="27"/>
-      <c r="B583" s="38"/>
+      <c r="B583" s="35"/>
       <c r="C583" s="1"/>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.35">
@@ -4281,7 +4621,7 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A585" s="27"/>
-      <c r="B585" s="38"/>
+      <c r="B585" s="35"/>
       <c r="C585" s="1"/>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.35">
@@ -4291,27 +4631,27 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A587" s="27"/>
-      <c r="B587" s="38"/>
+      <c r="B587" s="35"/>
       <c r="C587" s="1"/>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A588" s="27"/>
-      <c r="B588" s="38"/>
+      <c r="B588" s="35"/>
       <c r="C588" s="1"/>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A589" s="27"/>
-      <c r="B589" s="38"/>
+      <c r="B589" s="35"/>
       <c r="C589" s="1"/>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A590" s="27"/>
-      <c r="B590" s="38"/>
+      <c r="B590" s="35"/>
       <c r="C590" s="1"/>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A591" s="27"/>
-      <c r="B591" s="38"/>
+      <c r="B591" s="35"/>
       <c r="C591" s="1"/>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.35">
